--- a/消融实验.xlsx
+++ b/消融实验.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7DE404-2336-6F48-B86F-DD3A26543E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FAF02C-1290-E941-9450-89EF1EE8841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,10 +191,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +479,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="31" customHeight="1"/>
@@ -488,56 +488,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="31" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="31" customHeight="1">
       <c r="A3" s="1">
@@ -933,18 +933,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/消融实验.xlsx
+++ b/消融实验.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A4609E-2115-6C47-8899-DF83A1313D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BF3A14-A204-0940-A714-71A6BA9E69D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,17 +475,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,73 +769,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="31" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="67.1640625" customWidth="1"/>
-    <col min="2" max="2" width="68.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="94.83203125" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31" customHeight="1">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="6"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="5"/>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="31" customHeight="1">
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" spans="1:16" ht="31" customHeight="1">
       <c r="C3" s="3">
@@ -1224,58 +1224,58 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="59" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="28" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="31" customHeight="1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1306,10 +1306,10 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="31" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1346,10 +1346,10 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="31" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1386,10 +1386,10 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="31" customHeight="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1426,10 +1426,10 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="31" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1466,10 +1466,10 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="31" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1488,10 +1488,10 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="31" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1518,36 +1518,36 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="31" customHeight="1">
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="31" customHeight="1">
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="5"/>
       <c r="L27" s="1"/>
     </row>
@@ -1603,36 +1603,36 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="31" customHeight="1">
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="31" customHeight="1">
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="5"/>
       <c r="L32" s="1"/>
     </row>
@@ -1686,36 +1686,36 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="4:12" ht="31" customHeight="1">
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H36" s="6"/>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="4:12" ht="31" customHeight="1">
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="5"/>
       <c r="L37" s="1"/>
     </row>
@@ -1766,23 +1766,23 @@
       <c r="L39" s="1"/>
     </row>
     <row r="41" spans="4:12" ht="31" customHeight="1">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="4:12" ht="31" customHeight="1">
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="4:12" ht="31" customHeight="1">
@@ -1942,21 +1942,26 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J15:J16"/>
@@ -1965,40 +1970,35 @@
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J41:J42"/>
     <mergeCell ref="J26:J27"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="I15:I16"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="I26:I27"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
